--- a/docs/CareConnect-AllergyIntolerance-1.xlsx
+++ b/docs/CareConnect-AllergyIntolerance-1.xlsx
@@ -220,8 +220,7 @@
     <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content.</t>
   </si>
   <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. 
-This element is labelled as a modifier because the implicit rules may provide additional knowledge about the resource that modifies it's meaning or interpretation.</t>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element.   This element is labelled as a modifier because the implicit rules may provide additional knowledge about the resource that modifies it's meaning or interpretation.</t>
   </si>
   <si>
     <t>Resource.implicitRules</t>
@@ -358,7 +357,7 @@
     <t>allergyEnd</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://fhir.hl7.org.uk/STU3/StructureDefinition/Extension-CareConnect-AllergyIntoleranceEnd-1}
+    <t xml:space="preserve">Extension {https://hl7.org.uk/fhir/StructureDefinition/Extension-CareConnect-AllergyIntoleranceEnd-1}
 </t>
   </si>
   <si>
@@ -371,7 +370,7 @@
     <t>evidence</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://fhir.hl7.org.uk/STU3/StructureDefinition/Extension-CareConnect-Evidence-1}
+    <t xml:space="preserve">Extension {https://hl7.org.uk/fhir/StructureDefinition/Extension-CareConnect-Evidence-1}
 </t>
   </si>
   <si>
@@ -496,8 +495,7 @@
     <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage. 
-Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
   </si>
   <si>
     <t>Allows users to make use of identifiers when the identifier system is not known.</t>
@@ -588,7 +586,7 @@
     <t>AllergyIntolerance.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Organization-1)
+    <t xml:space="preserve">Reference(https://hl7.org.uk/fhir/StructureDefinition/CareConnect-Organization-1)
 </t>
   </si>
   <si>
@@ -629,8 +627,7 @@
 ait-2</t>
   </si>
   <si>
-    <t>Observation ACT
-.inboundRelationship[typeCode=COMP].source[classCode=OBS, code="clinicalStatus", moodCode=EVN].value</t>
+    <t>Observation ACT .inboundRelationship[typeCode=COMP].source[classCode=OBS, code="clinicalStatus", moodCode=EVN].value</t>
   </si>
   <si>
     <t>status</t>
@@ -648,11 +645,10 @@
     <t>This element is labeled as a modifier because the status contains the codes refuted and entered-in-error that mark the AllergyIntolerance as not currently valid.</t>
   </si>
   <si>
-    <t>https://fhir.hl7.org.uk/STU3/ValueSet/CareConnect-AllergyVerificationStatus-1</t>
-  </si>
-  <si>
-    <t>Observation ACT
-.inboundRelationship[typeCode=COMP].source[classCode=OBS, code="verificationStatus", moodCode=EVN].value</t>
+    <t>https://hl7.org.uk/fhir/ValueSet/CareConnect-AllergyVerificationStatus-1</t>
+  </si>
+  <si>
+    <t>Observation ACT .inboundRelationship[typeCode=COMP].source[classCode=OBS, code="verificationStatus", moodCode=EVN].value</t>
   </si>
   <si>
     <t>AllergyIntolerance.type</t>
@@ -727,8 +723,7 @@
     <t>Estimate of the potential clinical harm, or seriousness, of the reaction to the identified substance.</t>
   </si>
   <si>
-    <t>The default criticality value for any propensity to an adverse reaction should be 'Low Risk', indicating at the very least a relative contraindication to deliberate or voluntary exposure to the substance. 'High Risk' is flagged if the clinician has identified a propensity for a more serious or potentially life-threatening reaction, such as anaphylaxis, and implies an absolute contraindication to deliberate or voluntary exposure to the substance. If this element is missing, the criticality is unknown (though it may be known elsewhere).
-Systems that capture a severity at the condition level are actually representing the concept of criticality whereas the severity documented at the reaction level is representing the true reaction severity.  Existing systems that are capturing both condition criticality and reaction severity may use the term "severity" to represent both.  Criticality is the worst it could be in the future (i.e. situation-agnostic) whereas severity is situation-dependent.</t>
+    <t>The default criticality value for any propensity to an adverse reaction should be 'Low Risk', indicating at the very least a relative contraindication to deliberate or voluntary exposure to the substance. 'High Risk' is flagged if the clinician has identified a propensity for a more serious or potentially life-threatening reaction, such as anaphylaxis, and implies an absolute contraindication to deliberate or voluntary exposure to the substance. If this element is missing, the criticality is unknown (though it may be known elsewhere).  Systems that capture a severity at the condition level are actually representing the concept of criticality whereas the severity documented at the reaction level is representing the true reaction severity.  Existing systems that are capturing both condition criticality and reaction severity may use the term "severity" to represent both.  Criticality is the worst it could be in the future (i.e. situation-agnostic) whereas severity is situation-dependent.</t>
   </si>
   <si>
     <t>Estimate of the potential clinical harm, or seriousness, of a reaction to an identified substance.</t>
@@ -759,11 +754,7 @@
     <t>Code for an allergy or intolerance statement (either a positive or a negated/excluded statement).  This may be a code for a substance or pharmaceutical product that is considered to be responsible for the adverse reaction risk (e.g., "Latex"), an allergy or intolerance condition (e.g., "Latex allergy"), or a negated/excluded code for a specific substance or class (e.g., "No latex allergy") or a general or categorical negated statement (e.g.,  "No known allergy", "No known drug allergies").</t>
   </si>
   <si>
-    <t>It is strongly recommended that this element be populated using a terminology, where possible. For example, some terminologies used include RxNorm, SNOMED CT, DM+D, NDFRT, ICD-9, IDC-10, UNI, ATC and CPT. Plain text should only be used if there is no appropriate terminology available. Additional details can be specified in the text.--When a substance or product code is specified for the 'code' element, the "default" semantic context is that this is a positive statement of an allergy or intolerance (depending on the value of the 'type' element, if present) condition to the specified substance/product.  In the corresponding SNOMED CT allergy model, the specified substance/product is the target (destination) of the "Causative agent" relationship.--The 'substanceExposureRisk' extension is available as a structured and more flexible alternative to the 'code' element for making positive or negative allergy or intolerance statements.  This extension provides the capability to make "no known allergy" (or "no risk of adverse reaction") statements regarding any coded substance/product (including cases when a pre-coordinated "no allergy to x" concept for that substance/product does not exist).  If the 'substanceExposureRisk' extension is present, the AllergyIntolerance.code element SHALL be omitted.</t>
+    <t>It is strongly recommended that this element be populated using a terminology, where possible. For example, some terminologies used include RxNorm, SNOMED CT, DM+D, NDFRT, ICD-9, IDC-10, UNI, ATC and CPT. Plain text should only be used if there is no appropriate terminology available. Additional details can be specified in the text.  When a substance or product code is specified for the 'code' element, the "default" semantic context is that this is a positive statement of an allergy or intolerance (depending on the value of the 'type' element, if present) condition to the specified substance/product.  In the corresponding SNOMED CT allergy model, the specified substance/product is the target (destination) of the "Causative agent" relationship.  The 'substanceExposureRisk' extension is available as a structured and more flexible alternative to the 'code' element for making positive or negative allergy or intolerance statements.  This extension provides the capability to make "no known allergy" (or "no risk of adverse reaction") statements regarding any coded substance/product (including cases when a pre-coordinated "no allergy to x" concept for that substance/product does not exist).  If the 'substanceExposureRisk' extension is present, the AllergyIntolerance.code element SHALL be omitted.</t>
   </si>
   <si>
     <t>example</t>
@@ -775,17 +766,7 @@
     <t>http://hl7.org/fhir/ValueSet/allergyintolerance-code</t>
   </si>
   <si>
-    <t>substance/product:--.participation[typeCode=CAGNT].role[classCode=ADMM].player[classCode=MAT, determinerCode=KIND, code &lt;= ExposureAgentEntityType]--negated/excluded substance/product:--.participation[typeCode=CAGNT, negationInd=true].role[classCode=ADMM].player[classCode=MAT, determinerCode=KIND, code &lt;= ExposureAgentEntityType]--positive or negated/excluded condition/situation:--Observation.code=ASSERTION; Observation.value</t>
+    <t>substance/product:  .participation[typeCode=CAGNT].role[classCode=ADMM].player[classCode=MAT, determinerCode=KIND, code &lt;= ExposureAgentEntityType]  negated/excluded substance/product:  .participation[typeCode=CAGNT, negationInd=true].role[classCode=ADMM].player[classCode=MAT, determinerCode=KIND, code &lt;= ExposureAgentEntityType]  positive or negated/excluded condition/situation:  Observation.code=ASSERTION; Observation.value</t>
   </si>
   <si>
     <t>what</t>
@@ -838,7 +819,7 @@
     <t>A code from the SNOMED Clinical Terminology UK or a code from the v3 Code System NullFlavor specifying why a valid value is not present.</t>
   </si>
   <si>
-    <t>https://fhir.hl7.org.uk/STU3/ValueSet/CareConnect-AllergyCode-1</t>
+    <t>https://hl7.org.uk/fhir/ValueSet/CareConnect-AllergyCode-1</t>
   </si>
   <si>
     <t>AllergyIntolerance.code.coding.id</t>
@@ -850,7 +831,7 @@
     <t>snomedCTDescriptionID</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://fhir.hl7.org.uk/STU3/StructureDefinition/Extension-coding-sctdescid}
+    <t xml:space="preserve">Extension {https://hl7.org.uk/fhir/StructureDefinition/Extension-coding-sctdescid}
 </t>
   </si>
   <si>
@@ -1006,7 +987,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Patient-1)
+    <t xml:space="preserve">Reference(https://hl7.org.uk/fhir/StructureDefinition/CareConnect-Patient-1)
 </t>
   </si>
   <si>
@@ -1073,7 +1054,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Patient-1|https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Practitioner-1)
+    <t xml:space="preserve">Reference(https://hl7.org.uk/fhir/StructureDefinition/CareConnect-Patient-1|https://hl7.org.uk/fhir/StructureDefinition/CareConnect-Practitioner-1)
 </t>
   </si>
   <si>
@@ -1096,7 +1077,7 @@
 Informant</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(RelatedPerson|https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Patient-1|https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Practitioner-1)
+    <t xml:space="preserve">Reference(RelatedPerson|https://hl7.org.uk/fhir/StructureDefinition/CareConnect-Patient-1|https://hl7.org.uk/fhir/StructureDefinition/CareConnect-Practitioner-1)
 </t>
   </si>
   <si>
@@ -1161,7 +1142,7 @@
     <t>AllergyIntolerance.note.author[x]</t>
   </si>
   <si>
-    <t>Reference(RelatedPerson|https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Patient-1|https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Practitioner-1)
+    <t>Reference(RelatedPerson|https://hl7.org.uk/fhir/StructureDefinition/CareConnect-Patient-1|https://hl7.org.uk/fhir/StructureDefinition/CareConnect-Practitioner-1)
 string</t>
   </si>
   <si>
@@ -1319,7 +1300,7 @@
     <t>Manifestation can be expressed as a single word, phrase or brief description. For example: nausea, rash or no reaction. It is preferable that manifestation should be coded with a terminology, where possible. The values entered here may be used to display on an application screen as part of a list of adverse reactions, as recommended in the UK NHS CUI guidelines.  Terminologies commonly used include, but are not limited to, SNOMED CT or ICD10.</t>
   </si>
   <si>
-    <t>https://fhir.hl7.org.uk/STU3/ValueSet/CareConnect-AllergyManifestation-1</t>
+    <t>https://hl7.org.uk/fhir/ValueSet/CareConnect-AllergyManifestation-1</t>
   </si>
   <si>
     <t>AL1-5</t>
@@ -1401,7 +1382,7 @@
     <t>It is acknowledged that this assessment is very subjective. There may be some some specific practice domains where objective scales have been applied. Objective scales can be included in this model as extensions.</t>
   </si>
   <si>
-    <t>https://fhir.hl7.org.uk/STU3/ValueSet/CareConnect-ReactionEventSeverity-1</t>
+    <t>https://hl7.org.uk/fhir/ValueSet/CareConnect-ReactionEventSeverity-1</t>
   </si>
   <si>
     <t>AllergyIntolerance.reaction.exposureRoute</t>
@@ -1416,7 +1397,7 @@
     <t>Coding of the route of exposure with a terminology should be used wherever possible.</t>
   </si>
   <si>
-    <t>https://fhir.hl7.org.uk/STU3/ValueSet/CareConnect-AllergyExposureRoute-1</t>
+    <t>https://hl7.org.uk/fhir/ValueSet/CareConnect-AllergyExposureRoute-1</t>
   </si>
   <si>
     <t>outBoundRelationship[typeCode=SAS].target[classCode=SBADM, code &lt;= ExposureCode].routeCode</t>
@@ -1661,7 +1642,7 @@
     <col min="22" max="22" width="17.07421875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="125.65625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="71.7109375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="66.54296875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.6875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.7265625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.0390625" customWidth="true" bestFit="true"/>
